--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_2b.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_2b.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4D5D8-FAB5-CD43-856E-63AD2850061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9DF386-5BDC-3143-91A7-14823CA8E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44020" windowHeight="20360" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -141,10 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC57624-070C-4C6C-8EF3-3B0C0B08BDC6}">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,8 +803,9 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="X4" s="2">
         <v>1E-13</v>
       </c>
@@ -841,53 +845,20 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1E-13</v>
-      </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2">
-        <v>1E-13</v>
-      </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -900,13 +871,13 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
@@ -917,46 +888,26 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="K9">
+      <c r="K8">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="L9">
+      <c r="L8">
         <v>1E-8</v>
       </c>
     </row>
@@ -969,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794004A-4C7C-4E94-81C3-7E7CA0B5D399}">
   <dimension ref="A1:AV9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:AV3"/>
+    <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1353,6 +1304,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E3B750AFB9343D42B939C6ACF084A84C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93cd09b7eadf1f96f07e4cafc6f5cdf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00318829-ac19-4fa6-afcb-83e1ad4ea23b" xmlns:ns3="5ffa21b6-e00b-4719-91c3-427b29c2b057" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb8f100d907d4c7940a7c9646b5f1c73" ns2:_="" ns3:_="">
     <xsd:import namespace="00318829-ac19-4fa6-afcb-83e1ad4ea23b"/>
@@ -1569,22 +1535,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6E6D53-A4AA-4BF4-8C61-16B862AC0A51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1601,21 +1569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>